--- a/biology/Zoologie/Glyphocrangon/Glyphocrangon.xlsx
+++ b/biology/Zoologie/Glyphocrangon/Glyphocrangon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Glyphocrangon est un genre de crevettes, dites crevettes à armure, le seul de la famille des Glyphocrangonidae.
 Ce genre comporte 85 espèces vivant dans les abysses jusqu'à 6 000 m de profondeur.
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (29 mars 2015)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (29 mars 2015) :
 Glyphocrangon aculeata A. Milne-Edwards, 1881
 Glyphocrangon acuminata Spence Bate, 1888
 Glyphocrangon africana Komai, 2010
@@ -632,7 +646,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Milne-Edwards, 1881 : Description de quelques crustacés macroures provenant des grandes profondeurs de la Mer des Antilles. Annales des Sciences Naturelles, ser. 6, vol. 11, p. 1–15.
 Smith, 1884 : Report on the decapod Crustacea of the Albatross dredgings off the east coast of the United States in 1883. Report of the United States Commission of Fish and Fisheries, vol. 10, p. 345–426.</t>
